--- a/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_D2_Custom.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_D2_Custom.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB8D8D-A04C-4675-A9CA-B6B6344CE1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EA8251-61EA-4FC7-9C37-2F6ECF9F8931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedCashFlow" sheetId="9" r:id="rId1"/>
-    <sheet name="MeasurementType" sheetId="10" r:id="rId2"/>
-    <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t>PostingDate</t>
   </si>
@@ -165,19 +164,13 @@
   </si>
   <si>
     <t>MeasurementType</t>
-  </si>
-  <si>
-    <t>Collateral</t>
-  </si>
-  <si>
-    <t>FairValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +200,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -255,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -264,7 +250,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842CF9C8-9C33-44D4-B175-3D20CAE2D3CA}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1125,45 +1110,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65EE7-6F2F-45F0-9B70-77809783DC5E}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1471,7 +1417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:O25"/>
   <sheetViews>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_D2_Custom.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_D2_Custom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EA8251-61EA-4FC7-9C37-2F6ECF9F8931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65417FA-8001-4674-96C7-4B946C7CB344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedCashFlow" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
   <si>
     <t>PostingDate</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>MeasurementType</t>
+  </si>
+  <si>
+    <t>Collateral</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842CF9C8-9C33-44D4-B175-3D20CAE2D3CA}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,6 +1105,52 @@
       </c>
       <c r="G25">
         <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B26" s="7">
+        <v>45716</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7">
+        <v>45716</v>
+      </c>
+      <c r="G26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B27" s="7">
+        <v>45716</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="7">
+        <v>45716</v>
+      </c>
+      <c r="G27">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
